--- a/Log.xlsx
+++ b/Log.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ChargeStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393869B5-98D4-401B-AED7-53F615C481BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48239E58-1418-4E4A-97AE-AC74AE03C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +25,136 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andy Cheng</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{16AE8A75-83CB-4B02-A4BC-FE331E37B34A}">
+      <text/>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{233C1A1B-5364-40D8-A670-18B16558CA06}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{5BD9E7BC-488B-40BA-A7FF-A145587DE62C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{C01D5417-D52A-4946-BA0C-60A6D164918D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{B854F67C-9452-4491-8E44-EA3715F180E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{CAB08537-96DC-426B-8FB0-00C744FB21DE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{9B9EDAB4-5604-48F6-BC2D-C959C2E28879}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{D4303713-5BAC-4A85-A001-6D6E67B6383E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{0CB03600-1C68-4700-93C0-E8D117462CEA}">
+      <text/>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{EF226448-8BDC-48F9-8B72-CE2C7717CB7D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>A</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -88,6 +217,49 @@
   </si>
   <si>
     <t>外接type-C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>經過再電拔插，MUX沒有回應</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N ,Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆下原本的PCF，重新焊接TCA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆下原本的TCA，重新焊接PCF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接新的TCA</t>
+  </si>
+  <si>
+    <t>焊接新的TCA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定是TCA問題</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>壞的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +267,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +301,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -145,12 +326,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -163,10 +353,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -184,55 +376,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>347273</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA172EBA-6E76-4A9D-9B3B-F26F0438069A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="1838325"/>
-          <a:ext cx="2176073" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,8 +731,11 @@
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>6</v>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -609,32 +755,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44929</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44931</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>